--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -12,7 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama de Bloques" sheetId="1" r:id="rId1"/>
+    <sheet name="Reportes" sheetId="2" r:id="rId2"/>
+    <sheet name="Maps de Calor" sheetId="3" r:id="rId3"/>
+    <sheet name="..." sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +24,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Repórte de Ubicación</t>
+  </si>
+  <si>
+    <t>Req</t>
+  </si>
+  <si>
+    <t>Ultima ubicación de cada vehiculo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,81 +95,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectángulo 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="3314700"/>
-          <a:ext cx="6286500" cy="3905250"/>
+      <xdr:colOff>449037</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectángulo 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3497037" y="3832678"/>
+          <a:ext cx="11811000" cy="5216071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectángulo 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001250" y="3778250"/>
-          <a:ext cx="5794375" cy="3787775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -525,14 +496,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,7 +512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="3448050"/>
+          <a:off x="4657725" y="5230584"/>
           <a:ext cx="1219200" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -588,8 +559,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -599,7 +570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4981575" y="2790825"/>
-          <a:ext cx="523875" cy="523875"/>
+          <a:ext cx="523875" cy="2121354"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -636,14 +607,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -652,7 +623,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562475" y="5276850"/>
+          <a:off x="4562475" y="7059384"/>
           <a:ext cx="1400175" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -693,14 +664,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -709,7 +680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="4657725"/>
+          <a:off x="4991100" y="6440259"/>
           <a:ext cx="523875" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -747,14 +718,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>172809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -763,7 +734,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="5248275"/>
+          <a:off x="7086600" y="7030809"/>
           <a:ext cx="2400300" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -808,14 +779,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -824,7 +795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9915525" y="5600700"/>
+          <a:off x="9915525" y="7383234"/>
           <a:ext cx="1495425" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -862,14 +833,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -878,7 +849,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11772900" y="5245100"/>
+          <a:off x="11772900" y="7027634"/>
           <a:ext cx="2400300" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -923,40 +894,482 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flecha derecha 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105526" y="7307034"/>
+          <a:ext cx="800100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Estrella de 4 puntas 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="2295526"/>
+          <a:ext cx="790575" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ALZ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Flecha derecha 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105526" y="5524500"/>
-          <a:ext cx="800100" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <xdr:cNvPr id="3" name="Estrella de 4 puntas 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="2895600"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Estrella de 4 puntas 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="3648075"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Estrella de 4 puntas 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="1628775"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9968"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Estrella de 4 puntas 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="1219200"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Estrella de 4 puntas 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="4810125"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Estrella de 4 puntas 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="3714750"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Estrella de 4 puntas 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="4762500"/>
+          <a:ext cx="771525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1242,7 +1655,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,4 +1663,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Bloques" sheetId="1" r:id="rId1"/>
     <sheet name="Reportes" sheetId="2" r:id="rId2"/>
     <sheet name="Maps de Calor" sheetId="3" r:id="rId3"/>
-    <sheet name="..." sheetId="4" r:id="rId4"/>
+    <sheet name="Microservicios" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1384,6 +1384,1724 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="1676400"/>
+          <a:ext cx="1895475" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NGINX PROXY</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SERVICIOS  5173 VITE</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3000 BACKEND JS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Cara sonriente 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1495425"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flecha derecha 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="2000250"/>
+          <a:ext cx="857250" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>80,443</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450851</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7737476" y="4667251"/>
+          <a:ext cx="1857375" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5173 FRONT_END</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762875" y="609600"/>
+          <a:ext cx="1857375" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3000 API BACK_END</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117476</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector angular 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="2262188"/>
+          <a:ext cx="2374901" cy="3067051"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector angular 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5362575" y="1271588"/>
+          <a:ext cx="2400300" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectángulo 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238124" y="400050"/>
+          <a:ext cx="2238375" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>www.santiago.maxtelperu.com</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>www.api.santiago.maxtelperu.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284164</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector angular 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3028156" y="353219"/>
+          <a:ext cx="3352801" cy="7923214"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector angular 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="5522118" y="-2436020"/>
+          <a:ext cx="123825" cy="6215064"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -184615"/>
+            <a:gd name="adj2" fmla="val 57471"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>51859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Disco magnético 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="432859"/>
+          <a:ext cx="1485900" cy="720724"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>mongodb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119592</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157692</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Flecha derecha 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10025592" y="750358"/>
+          <a:ext cx="800100" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468841</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>621241</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Disco magnético 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11136841" y="1287992"/>
+          <a:ext cx="1676400" cy="659341"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSTGRES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Nube 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="4743450"/>
+          <a:ext cx="3543300" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>API GOOGLE MAPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Flecha izquierda 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="5200650"/>
+          <a:ext cx="1104900" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>174624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectángulo redondeado 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16176624" y="2781299"/>
+          <a:ext cx="1895475" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPSSERVER 6000</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> WEB SOCKET 5000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125941</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectángulo redondeado 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7745941" y="2711450"/>
+          <a:ext cx="1895475" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5000 CLIENTE WEB SOCKET</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>497417</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Triángulo isósceles 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18785417" y="994833"/>
+          <a:ext cx="846666" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>374651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>459317</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Triángulo isósceles 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20186651" y="1358900"/>
+          <a:ext cx="846666" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>452967</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>537633</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Triángulo isósceles 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21026967" y="2315634"/>
+          <a:ext cx="846666" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Triángulo isósceles 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20650201" y="3558118"/>
+          <a:ext cx="846666" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>175684</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Triángulo isósceles 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19225684" y="4112685"/>
+          <a:ext cx="846666" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>730249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Flecha izquierda 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18594916" y="3122084"/>
+          <a:ext cx="1185333" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PUERTO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 6000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Flecha derecha 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10011834" y="3132667"/>
+          <a:ext cx="5693833" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299506</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>670981</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectángulo redondeado 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16301506" y="6927849"/>
+          <a:ext cx="1895475" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5000 CLIENTE WEB SOCKET</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>624416</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Flecha arriba 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16626416" y="4254500"/>
+          <a:ext cx="1195917" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>687917</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Y 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15927917" y="8995833"/>
+          <a:ext cx="2635250" cy="2264833"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DESARROLLO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Flecha arriba 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16774583" y="8244417"/>
+          <a:ext cx="920750" cy="624417"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166159</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204259</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Flecha derecha 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10072159" y="1347259"/>
+          <a:ext cx="800100" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Conector angular 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+          <a:endCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9952302" y="688711"/>
+          <a:ext cx="764117" cy="3281362"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1654,7 +3372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -1712,10 +3430,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -2307,15 +2307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>125941</xdr:colOff>
+      <xdr:colOff>284691</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>497416</xdr:colOff>
+      <xdr:colOff>656166</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2324,7 +2324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7745941" y="2711450"/>
+          <a:off x="7904691" y="2806700"/>
           <a:ext cx="1895475" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3055,7 +3055,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>311680</xdr:colOff>
+      <xdr:colOff>470430</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
@@ -3063,7 +3063,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>545042</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3075,8 +3075,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9952302" y="688711"/>
-          <a:ext cx="764117" cy="3281362"/>
+          <a:off x="9984052" y="815711"/>
+          <a:ext cx="859367" cy="3122612"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3431,7 +3431,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -2237,16 +2237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>174624</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>672040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>103716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>546099</xdr:colOff>
+      <xdr:colOff>645583</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>132291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2255,8 +2255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16176624" y="2781299"/>
-          <a:ext cx="1895475" cy="1171575"/>
+          <a:off x="15912040" y="2770716"/>
+          <a:ext cx="2259543" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2282,7 +2282,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>GPSSERVER 6000</a:t>
@@ -2298,6 +2314,24 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> WEB SOCKET 5000</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ruptela.santiago.maxtelperu.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3430,7 +3464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>

--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Ultima ubicación de cada vehiculo</t>
+  </si>
+  <si>
+    <t>CUENTA DE VIDAL</t>
+  </si>
+  <si>
+    <t>CUENTA DE WILSON DESARROLLO</t>
+  </si>
+  <si>
+    <t>CUENTA DE VIDAL PRODUCCION</t>
   </si>
 </sst>
 </file>
@@ -3462,14 +3471,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Bloques" sheetId="1" r:id="rId1"/>
     <sheet name="Reportes" sheetId="2" r:id="rId2"/>
     <sheet name="Maps de Calor" sheetId="3" r:id="rId3"/>
     <sheet name="Microservicios" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -46,6 +48,117 @@
   <si>
     <t>CUENTA DE VIDAL PRODUCCION</t>
   </si>
+  <si>
+    <t>2MINUTOS</t>
+  </si>
+  <si>
+    <t>3 SEGUNDOS</t>
+  </si>
+  <si>
+    <t>MINIMO UN MINUTO</t>
+  </si>
+  <si>
+    <t>MAXIMO 10MINUTOS</t>
+  </si>
+  <si>
+    <t>estados del vehiculo</t>
+  </si>
+  <si>
+    <t>CARGANDO</t>
+  </si>
+  <si>
+    <t>DESCARGANDO</t>
+  </si>
+  <si>
+    <t>EN TRANSITO</t>
+  </si>
+  <si>
+    <t>DETENIDO</t>
+  </si>
+  <si>
+    <t>APAGADO</t>
+  </si>
+  <si>
+    <t>VELOCIDAD CERO Y DISTANCIA A CADA UNO DE LAS REFERENCIAS MAYOR A LOS RADIOS</t>
+  </si>
+  <si>
+    <t>IGNICION APAGADA</t>
+  </si>
+  <si>
+    <t>VELOCIDAD MAYOR CERO Y DISTANCIA A CADA UNO DE LAS REFERENCIAS MAYOR A LOS RADIOS</t>
+  </si>
+  <si>
+    <t>VELOCIDAD CERO Y DISTANCIA A UNA REFERENCIA DE CHUTE MENOR AL RADIO</t>
+  </si>
+  <si>
+    <t>VELOCIDAD CERO Y DISTANCIA A UNA REFERENCIA A ESCABADORA MENOR AL RADIO</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
+  </si>
+  <si>
+    <t>ULTIMA TRANSMISION HACE 15MIN HORA (JOB HORARIO DE VERIFICACION)</t>
+  </si>
+  <si>
+    <t>CAMIONETA</t>
+  </si>
+  <si>
+    <t>TIPO DE VEHICULO</t>
+  </si>
+  <si>
+    <t>CAMION</t>
+  </si>
+  <si>
+    <t>CCACRAMPA</t>
+  </si>
+  <si>
+    <t>ULTIMO POSICION</t>
+  </si>
+  <si>
+    <t>CALCULO DE POSICION</t>
+  </si>
+  <si>
+    <t>ESCABADORA</t>
+  </si>
+  <si>
+    <t>TIPO DE USUARIO</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR</t>
+  </si>
+  <si>
+    <t>CHOFER</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>CUENTA SIN ACCESO</t>
+  </si>
+  <si>
+    <t>CONTROL DE ASIGNACION</t>
+  </si>
+  <si>
+    <t>CONTROLADOR</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>COTROLADOR</t>
+  </si>
+  <si>
+    <t>CHUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POR DIA Y HORA</t>
+  </si>
+  <si>
+    <t>23/15/2025  20:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -60,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,8 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3145,6 +3266,1479 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>269421</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Elipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15509421" y="4467225"/>
+          <a:ext cx="4676775" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ESCABADORA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>420459</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>24946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>410934</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>24946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Elipse 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17946459" y="26123446"/>
+          <a:ext cx="4562475" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BOLQUETE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>229959</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Elipse 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54331959" y="1015545"/>
+          <a:ext cx="9866541" cy="9223829"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PLANTA DE LAVADO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="3857625"/>
+          <a:ext cx="5334000" cy="16192500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Elipse 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66913125" y="5358945"/>
+          <a:ext cx="12421959" cy="12024179"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PLANTA DE LAVADO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>82096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>525235</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Elipse 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43767375" y="13226596"/>
+          <a:ext cx="10859860" cy="9728654"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PLANTA DE LAVADO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17668875" y="6953250"/>
+          <a:ext cx="809625" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Distinto de 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36528375" y="26860500"/>
+          <a:ext cx="1714500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathNotEqual">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45539025" y="17678400"/>
+          <a:ext cx="809625" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectángulo 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57073800" y="5924550"/>
+          <a:ext cx="809625" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectángulo 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68513325" y="11458575"/>
+          <a:ext cx="809625" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>96609</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Elipse 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29814609" y="129721"/>
+          <a:ext cx="4562475" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BOLQUETE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>201384</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>191859</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Elipse 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42111384" y="1758496"/>
+          <a:ext cx="4562475" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BOLQUETE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Distinto de 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31299150" y="914400"/>
+          <a:ext cx="1714500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathNotEqual">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Distinto de 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43786425" y="2924175"/>
+          <a:ext cx="1714500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathNotEqual">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17811750" y="8715375"/>
+          <a:ext cx="1905001" cy="17859375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20907375" y="21431250"/>
+          <a:ext cx="24717375" cy="8667750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Cara sonriente 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="24288750"/>
+          <a:ext cx="6524625" cy="6667500"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>504775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>95102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector recto de flecha 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21840775" y="5667375"/>
+          <a:ext cx="33023225" cy="21097727"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>410934</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>131535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>120196</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector recto de flecha 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22508934" y="11371035"/>
+          <a:ext cx="44404191" cy="16943161"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Elipse 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31813500" y="28717875"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Elipse 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35347275" y="26536650"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Elipse 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36071175" y="28736925"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Elipse 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38700075" y="28889325"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Elipse 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36852225" y="29708475"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Elipse 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37957125" y="27003375"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Elipse 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37585650" y="28584525"/>
+          <a:ext cx="1000125" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3473,7 +5067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -3494,4 +5088,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M4:Q5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="AC84" sqref="AC84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45800.25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hubei\Documents\ruptela_decoder\arquitectura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bug\Documents\ruptela_decoder\arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Bloques" sheetId="1" r:id="rId1"/>
     <sheet name="Reportes" sheetId="2" r:id="rId2"/>
     <sheet name="Maps de Calor" sheetId="3" r:id="rId3"/>
     <sheet name="Microservicios" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
+    <sheet name="funcional" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
+    <sheet name="tabla" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -159,15 +161,79 @@
   <si>
     <t>23/15/2025  20:00:00</t>
   </si>
+  <si>
+    <t>1metro</t>
+  </si>
+  <si>
+    <t>5km</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>POSICION</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>hora inicio carga</t>
+  </si>
+  <si>
+    <t>hora final carga</t>
+  </si>
+  <si>
+    <t>hora inicio descarga</t>
+  </si>
+  <si>
+    <t>CONTROL DE ORIGEN</t>
+  </si>
+  <si>
+    <t>INGRESO AL CHUTE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>cargando inicio</t>
+  </si>
+  <si>
+    <t>cargando final</t>
+  </si>
+  <si>
+    <t>descargando inicio</t>
+  </si>
+  <si>
+    <t>descargando final</t>
+  </si>
+  <si>
+    <t>dercargando final</t>
+  </si>
+  <si>
+    <t>cuando esta fuera del radio y su estado es cargando inicio</t>
+  </si>
+  <si>
+    <t>cuando esta dentro del radio o la distancia entre dos puentos es menor al radio y su estado anterior es de transito</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,10 +265,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2367,14 +2437,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>672040</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>153456</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>103716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>645583</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>132291</xdr:rowOff>
     </xdr:to>
@@ -2385,7 +2455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15912040" y="2770716"/>
+          <a:off x="7773456" y="2770716"/>
           <a:ext cx="2259543" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2470,67 +2540,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>284691</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>656166</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectángulo redondeado 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7904691" y="2806700"/>
-          <a:ext cx="1895475" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>5000 CLIENTE WEB SOCKET</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>497417</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -2816,14 +2825,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>306916</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>730249</xdr:colOff>
+      <xdr:colOff>730250</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
@@ -2834,8 +2843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18594916" y="3122084"/>
-          <a:ext cx="1185333" cy="476250"/>
+          <a:off x="10202334" y="3122084"/>
+          <a:ext cx="9577916" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -2879,292 +2888,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Flecha derecha 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10011834" y="3132667"/>
-          <a:ext cx="5693833" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>5000</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>299506</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>670981</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>98424</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rectángulo redondeado 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16301506" y="6927849"/>
-          <a:ext cx="1895475" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>5000 CLIENTE WEB SOCKET</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>624416</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Flecha arriba 55"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16626416" y="4254500"/>
-          <a:ext cx="1195917" cy="1968500"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>5000</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>687917</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>275167</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Y 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15927917" y="8995833"/>
-          <a:ext cx="2635250" cy="2264833"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartSummingJunction">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>DESARROLLO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Flecha arriba 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16774583" y="8244417"/>
-          <a:ext cx="920750" cy="624417"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>166159</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>13759</xdr:rowOff>
@@ -3233,7 +2956,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="Conector angular 68"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="0"/>
           <a:endCxn id="31" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -3332,16 +3054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>420459</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>24946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>410934</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>24946</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>82096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>82096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3350,7 +3072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17946459" y="26123446"/>
+          <a:off x="36918900" y="11131096"/>
           <a:ext cx="4562475" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4118,100 +3840,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto de flecha 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17811750" y="8715375"/>
-          <a:ext cx="1905001" cy="17859375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20907375" y="21431250"/>
-          <a:ext cx="24717375" cy="8667750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>127</xdr:row>
@@ -4266,105 +3894,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>504775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>95102</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector recto de flecha 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21840775" y="5667375"/>
-          <a:ext cx="33023225" cy="21097727"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>410934</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>131535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>120196</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Conector recto de flecha 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="6"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="22508934" y="11371035"/>
-          <a:ext cx="44404191" cy="16943161"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>150</xdr:row>
@@ -4713,6 +4242,1610 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Estrella de 4 puntas 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="2771775"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Estrella de 4 puntas 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="2114550"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Estrella de 4 puntas 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="1504950"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Estrella de 4 puntas 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="1952625"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Estrella de 4 puntas 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="2419350"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Estrella de 4 puntas 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="2828925"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Estrella de 4 puntas 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="2990850"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Estrella de 4 puntas 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="2409825"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Estrella de 4 puntas 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858250" y="1447800"/>
+          <a:ext cx="1152525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>725793</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Forma libre 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="1914525"/>
+          <a:ext cx="6612243" cy="2028825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 6612243"/>
+            <a:gd name="connsiteY0" fmla="*/ 2028825 h 2028825"/>
+            <a:gd name="connsiteX1" fmla="*/ 95250 w 6612243"/>
+            <a:gd name="connsiteY1" fmla="*/ 2000250 h 2028825"/>
+            <a:gd name="connsiteX2" fmla="*/ 152400 w 6612243"/>
+            <a:gd name="connsiteY2" fmla="*/ 1981200 h 2028825"/>
+            <a:gd name="connsiteX3" fmla="*/ 257175 w 6612243"/>
+            <a:gd name="connsiteY3" fmla="*/ 1914525 h 2028825"/>
+            <a:gd name="connsiteX4" fmla="*/ 295275 w 6612243"/>
+            <a:gd name="connsiteY4" fmla="*/ 1885950 h 2028825"/>
+            <a:gd name="connsiteX5" fmla="*/ 342900 w 6612243"/>
+            <a:gd name="connsiteY5" fmla="*/ 1857375 h 2028825"/>
+            <a:gd name="connsiteX6" fmla="*/ 400050 w 6612243"/>
+            <a:gd name="connsiteY6" fmla="*/ 1819275 h 2028825"/>
+            <a:gd name="connsiteX7" fmla="*/ 466725 w 6612243"/>
+            <a:gd name="connsiteY7" fmla="*/ 1781175 h 2028825"/>
+            <a:gd name="connsiteX8" fmla="*/ 561975 w 6612243"/>
+            <a:gd name="connsiteY8" fmla="*/ 1733550 h 2028825"/>
+            <a:gd name="connsiteX9" fmla="*/ 714375 w 6612243"/>
+            <a:gd name="connsiteY9" fmla="*/ 1619250 h 2028825"/>
+            <a:gd name="connsiteX10" fmla="*/ 762000 w 6612243"/>
+            <a:gd name="connsiteY10" fmla="*/ 1581150 h 2028825"/>
+            <a:gd name="connsiteX11" fmla="*/ 809625 w 6612243"/>
+            <a:gd name="connsiteY11" fmla="*/ 1543050 h 2028825"/>
+            <a:gd name="connsiteX12" fmla="*/ 838200 w 6612243"/>
+            <a:gd name="connsiteY12" fmla="*/ 1495425 h 2028825"/>
+            <a:gd name="connsiteX13" fmla="*/ 866775 w 6612243"/>
+            <a:gd name="connsiteY13" fmla="*/ 1476375 h 2028825"/>
+            <a:gd name="connsiteX14" fmla="*/ 914400 w 6612243"/>
+            <a:gd name="connsiteY14" fmla="*/ 1438275 h 2028825"/>
+            <a:gd name="connsiteX15" fmla="*/ 933450 w 6612243"/>
+            <a:gd name="connsiteY15" fmla="*/ 1409700 h 2028825"/>
+            <a:gd name="connsiteX16" fmla="*/ 981075 w 6612243"/>
+            <a:gd name="connsiteY16" fmla="*/ 1371600 h 2028825"/>
+            <a:gd name="connsiteX17" fmla="*/ 1019175 w 6612243"/>
+            <a:gd name="connsiteY17" fmla="*/ 1333500 h 2028825"/>
+            <a:gd name="connsiteX18" fmla="*/ 1047750 w 6612243"/>
+            <a:gd name="connsiteY18" fmla="*/ 1314450 h 2028825"/>
+            <a:gd name="connsiteX19" fmla="*/ 1104900 w 6612243"/>
+            <a:gd name="connsiteY19" fmla="*/ 1266825 h 2028825"/>
+            <a:gd name="connsiteX20" fmla="*/ 1181100 w 6612243"/>
+            <a:gd name="connsiteY20" fmla="*/ 1209675 h 2028825"/>
+            <a:gd name="connsiteX21" fmla="*/ 1219200 w 6612243"/>
+            <a:gd name="connsiteY21" fmla="*/ 1181100 h 2028825"/>
+            <a:gd name="connsiteX22" fmla="*/ 1304925 w 6612243"/>
+            <a:gd name="connsiteY22" fmla="*/ 1114425 h 2028825"/>
+            <a:gd name="connsiteX23" fmla="*/ 1362075 w 6612243"/>
+            <a:gd name="connsiteY23" fmla="*/ 1076325 h 2028825"/>
+            <a:gd name="connsiteX24" fmla="*/ 1419225 w 6612243"/>
+            <a:gd name="connsiteY24" fmla="*/ 1028700 h 2028825"/>
+            <a:gd name="connsiteX25" fmla="*/ 1457325 w 6612243"/>
+            <a:gd name="connsiteY25" fmla="*/ 1009650 h 2028825"/>
+            <a:gd name="connsiteX26" fmla="*/ 1543050 w 6612243"/>
+            <a:gd name="connsiteY26" fmla="*/ 942975 h 2028825"/>
+            <a:gd name="connsiteX27" fmla="*/ 1581150 w 6612243"/>
+            <a:gd name="connsiteY27" fmla="*/ 904875 h 2028825"/>
+            <a:gd name="connsiteX28" fmla="*/ 1609725 w 6612243"/>
+            <a:gd name="connsiteY28" fmla="*/ 895350 h 2028825"/>
+            <a:gd name="connsiteX29" fmla="*/ 1676400 w 6612243"/>
+            <a:gd name="connsiteY29" fmla="*/ 838200 h 2028825"/>
+            <a:gd name="connsiteX30" fmla="*/ 1733550 w 6612243"/>
+            <a:gd name="connsiteY30" fmla="*/ 800100 h 2028825"/>
+            <a:gd name="connsiteX31" fmla="*/ 1762125 w 6612243"/>
+            <a:gd name="connsiteY31" fmla="*/ 771525 h 2028825"/>
+            <a:gd name="connsiteX32" fmla="*/ 1790700 w 6612243"/>
+            <a:gd name="connsiteY32" fmla="*/ 762000 h 2028825"/>
+            <a:gd name="connsiteX33" fmla="*/ 1819275 w 6612243"/>
+            <a:gd name="connsiteY33" fmla="*/ 742950 h 2028825"/>
+            <a:gd name="connsiteX34" fmla="*/ 2009775 w 6612243"/>
+            <a:gd name="connsiteY34" fmla="*/ 762000 h 2028825"/>
+            <a:gd name="connsiteX35" fmla="*/ 2105025 w 6612243"/>
+            <a:gd name="connsiteY35" fmla="*/ 809625 h 2028825"/>
+            <a:gd name="connsiteX36" fmla="*/ 2219325 w 6612243"/>
+            <a:gd name="connsiteY36" fmla="*/ 847725 h 2028825"/>
+            <a:gd name="connsiteX37" fmla="*/ 2286000 w 6612243"/>
+            <a:gd name="connsiteY37" fmla="*/ 876300 h 2028825"/>
+            <a:gd name="connsiteX38" fmla="*/ 2362200 w 6612243"/>
+            <a:gd name="connsiteY38" fmla="*/ 914400 h 2028825"/>
+            <a:gd name="connsiteX39" fmla="*/ 2590800 w 6612243"/>
+            <a:gd name="connsiteY39" fmla="*/ 971550 h 2028825"/>
+            <a:gd name="connsiteX40" fmla="*/ 2667000 w 6612243"/>
+            <a:gd name="connsiteY40" fmla="*/ 990600 h 2028825"/>
+            <a:gd name="connsiteX41" fmla="*/ 2714625 w 6612243"/>
+            <a:gd name="connsiteY41" fmla="*/ 1000125 h 2028825"/>
+            <a:gd name="connsiteX42" fmla="*/ 2762250 w 6612243"/>
+            <a:gd name="connsiteY42" fmla="*/ 1019175 h 2028825"/>
+            <a:gd name="connsiteX43" fmla="*/ 2857500 w 6612243"/>
+            <a:gd name="connsiteY43" fmla="*/ 1047750 h 2028825"/>
+            <a:gd name="connsiteX44" fmla="*/ 2886075 w 6612243"/>
+            <a:gd name="connsiteY44" fmla="*/ 1066800 h 2028825"/>
+            <a:gd name="connsiteX45" fmla="*/ 2943225 w 6612243"/>
+            <a:gd name="connsiteY45" fmla="*/ 1085850 h 2028825"/>
+            <a:gd name="connsiteX46" fmla="*/ 3000375 w 6612243"/>
+            <a:gd name="connsiteY46" fmla="*/ 1123950 h 2028825"/>
+            <a:gd name="connsiteX47" fmla="*/ 3086100 w 6612243"/>
+            <a:gd name="connsiteY47" fmla="*/ 1143000 h 2028825"/>
+            <a:gd name="connsiteX48" fmla="*/ 3219450 w 6612243"/>
+            <a:gd name="connsiteY48" fmla="*/ 1200150 h 2028825"/>
+            <a:gd name="connsiteX49" fmla="*/ 3267075 w 6612243"/>
+            <a:gd name="connsiteY49" fmla="*/ 1257300 h 2028825"/>
+            <a:gd name="connsiteX50" fmla="*/ 3295650 w 6612243"/>
+            <a:gd name="connsiteY50" fmla="*/ 1285875 h 2028825"/>
+            <a:gd name="connsiteX51" fmla="*/ 3324225 w 6612243"/>
+            <a:gd name="connsiteY51" fmla="*/ 1323975 h 2028825"/>
+            <a:gd name="connsiteX52" fmla="*/ 3352800 w 6612243"/>
+            <a:gd name="connsiteY52" fmla="*/ 1343025 h 2028825"/>
+            <a:gd name="connsiteX53" fmla="*/ 3390900 w 6612243"/>
+            <a:gd name="connsiteY53" fmla="*/ 1381125 h 2028825"/>
+            <a:gd name="connsiteX54" fmla="*/ 3438525 w 6612243"/>
+            <a:gd name="connsiteY54" fmla="*/ 1419225 h 2028825"/>
+            <a:gd name="connsiteX55" fmla="*/ 3476625 w 6612243"/>
+            <a:gd name="connsiteY55" fmla="*/ 1457325 h 2028825"/>
+            <a:gd name="connsiteX56" fmla="*/ 3514725 w 6612243"/>
+            <a:gd name="connsiteY56" fmla="*/ 1476375 h 2028825"/>
+            <a:gd name="connsiteX57" fmla="*/ 3543300 w 6612243"/>
+            <a:gd name="connsiteY57" fmla="*/ 1495425 h 2028825"/>
+            <a:gd name="connsiteX58" fmla="*/ 3657600 w 6612243"/>
+            <a:gd name="connsiteY58" fmla="*/ 1543050 h 2028825"/>
+            <a:gd name="connsiteX59" fmla="*/ 3733800 w 6612243"/>
+            <a:gd name="connsiteY59" fmla="*/ 1590675 h 2028825"/>
+            <a:gd name="connsiteX60" fmla="*/ 3762375 w 6612243"/>
+            <a:gd name="connsiteY60" fmla="*/ 1600200 h 2028825"/>
+            <a:gd name="connsiteX61" fmla="*/ 3810000 w 6612243"/>
+            <a:gd name="connsiteY61" fmla="*/ 1628775 h 2028825"/>
+            <a:gd name="connsiteX62" fmla="*/ 3857625 w 6612243"/>
+            <a:gd name="connsiteY62" fmla="*/ 1638300 h 2028825"/>
+            <a:gd name="connsiteX63" fmla="*/ 3895725 w 6612243"/>
+            <a:gd name="connsiteY63" fmla="*/ 1647825 h 2028825"/>
+            <a:gd name="connsiteX64" fmla="*/ 3962400 w 6612243"/>
+            <a:gd name="connsiteY64" fmla="*/ 1666875 h 2028825"/>
+            <a:gd name="connsiteX65" fmla="*/ 4000500 w 6612243"/>
+            <a:gd name="connsiteY65" fmla="*/ 1676400 h 2028825"/>
+            <a:gd name="connsiteX66" fmla="*/ 4057650 w 6612243"/>
+            <a:gd name="connsiteY66" fmla="*/ 1695450 h 2028825"/>
+            <a:gd name="connsiteX67" fmla="*/ 4124325 w 6612243"/>
+            <a:gd name="connsiteY67" fmla="*/ 1704975 h 2028825"/>
+            <a:gd name="connsiteX68" fmla="*/ 4762500 w 6612243"/>
+            <a:gd name="connsiteY68" fmla="*/ 1714500 h 2028825"/>
+            <a:gd name="connsiteX69" fmla="*/ 4810125 w 6612243"/>
+            <a:gd name="connsiteY69" fmla="*/ 1704975 h 2028825"/>
+            <a:gd name="connsiteX70" fmla="*/ 4886325 w 6612243"/>
+            <a:gd name="connsiteY70" fmla="*/ 1695450 h 2028825"/>
+            <a:gd name="connsiteX71" fmla="*/ 4924425 w 6612243"/>
+            <a:gd name="connsiteY71" fmla="*/ 1685925 h 2028825"/>
+            <a:gd name="connsiteX72" fmla="*/ 5200650 w 6612243"/>
+            <a:gd name="connsiteY72" fmla="*/ 1657350 h 2028825"/>
+            <a:gd name="connsiteX73" fmla="*/ 5276850 w 6612243"/>
+            <a:gd name="connsiteY73" fmla="*/ 1638300 h 2028825"/>
+            <a:gd name="connsiteX74" fmla="*/ 5324475 w 6612243"/>
+            <a:gd name="connsiteY74" fmla="*/ 1628775 h 2028825"/>
+            <a:gd name="connsiteX75" fmla="*/ 5353050 w 6612243"/>
+            <a:gd name="connsiteY75" fmla="*/ 1609725 h 2028825"/>
+            <a:gd name="connsiteX76" fmla="*/ 5419725 w 6612243"/>
+            <a:gd name="connsiteY76" fmla="*/ 1590675 h 2028825"/>
+            <a:gd name="connsiteX77" fmla="*/ 5448300 w 6612243"/>
+            <a:gd name="connsiteY77" fmla="*/ 1581150 h 2028825"/>
+            <a:gd name="connsiteX78" fmla="*/ 5514975 w 6612243"/>
+            <a:gd name="connsiteY78" fmla="*/ 1533525 h 2028825"/>
+            <a:gd name="connsiteX79" fmla="*/ 5553075 w 6612243"/>
+            <a:gd name="connsiteY79" fmla="*/ 1514475 h 2028825"/>
+            <a:gd name="connsiteX80" fmla="*/ 5610225 w 6612243"/>
+            <a:gd name="connsiteY80" fmla="*/ 1428750 h 2028825"/>
+            <a:gd name="connsiteX81" fmla="*/ 5638800 w 6612243"/>
+            <a:gd name="connsiteY81" fmla="*/ 1381125 h 2028825"/>
+            <a:gd name="connsiteX82" fmla="*/ 5772150 w 6612243"/>
+            <a:gd name="connsiteY82" fmla="*/ 1171575 h 2028825"/>
+            <a:gd name="connsiteX83" fmla="*/ 5819775 w 6612243"/>
+            <a:gd name="connsiteY83" fmla="*/ 1057275 h 2028825"/>
+            <a:gd name="connsiteX84" fmla="*/ 5838825 w 6612243"/>
+            <a:gd name="connsiteY84" fmla="*/ 1009650 h 2028825"/>
+            <a:gd name="connsiteX85" fmla="*/ 5876925 w 6612243"/>
+            <a:gd name="connsiteY85" fmla="*/ 933450 h 2028825"/>
+            <a:gd name="connsiteX86" fmla="*/ 5895975 w 6612243"/>
+            <a:gd name="connsiteY86" fmla="*/ 904875 h 2028825"/>
+            <a:gd name="connsiteX87" fmla="*/ 5905500 w 6612243"/>
+            <a:gd name="connsiteY87" fmla="*/ 876300 h 2028825"/>
+            <a:gd name="connsiteX88" fmla="*/ 5924550 w 6612243"/>
+            <a:gd name="connsiteY88" fmla="*/ 838200 h 2028825"/>
+            <a:gd name="connsiteX89" fmla="*/ 5991225 w 6612243"/>
+            <a:gd name="connsiteY89" fmla="*/ 742950 h 2028825"/>
+            <a:gd name="connsiteX90" fmla="*/ 6010275 w 6612243"/>
+            <a:gd name="connsiteY90" fmla="*/ 714375 h 2028825"/>
+            <a:gd name="connsiteX91" fmla="*/ 6096000 w 6612243"/>
+            <a:gd name="connsiteY91" fmla="*/ 638175 h 2028825"/>
+            <a:gd name="connsiteX92" fmla="*/ 6134100 w 6612243"/>
+            <a:gd name="connsiteY92" fmla="*/ 590550 h 2028825"/>
+            <a:gd name="connsiteX93" fmla="*/ 6162675 w 6612243"/>
+            <a:gd name="connsiteY93" fmla="*/ 571500 h 2028825"/>
+            <a:gd name="connsiteX94" fmla="*/ 6276975 w 6612243"/>
+            <a:gd name="connsiteY94" fmla="*/ 457200 h 2028825"/>
+            <a:gd name="connsiteX95" fmla="*/ 6305550 w 6612243"/>
+            <a:gd name="connsiteY95" fmla="*/ 428625 h 2028825"/>
+            <a:gd name="connsiteX96" fmla="*/ 6334125 w 6612243"/>
+            <a:gd name="connsiteY96" fmla="*/ 409575 h 2028825"/>
+            <a:gd name="connsiteX97" fmla="*/ 6381750 w 6612243"/>
+            <a:gd name="connsiteY97" fmla="*/ 361950 h 2028825"/>
+            <a:gd name="connsiteX98" fmla="*/ 6419850 w 6612243"/>
+            <a:gd name="connsiteY98" fmla="*/ 295275 h 2028825"/>
+            <a:gd name="connsiteX99" fmla="*/ 6477000 w 6612243"/>
+            <a:gd name="connsiteY99" fmla="*/ 219075 h 2028825"/>
+            <a:gd name="connsiteX100" fmla="*/ 6505575 w 6612243"/>
+            <a:gd name="connsiteY100" fmla="*/ 161925 h 2028825"/>
+            <a:gd name="connsiteX101" fmla="*/ 6534150 w 6612243"/>
+            <a:gd name="connsiteY101" fmla="*/ 114300 h 2028825"/>
+            <a:gd name="connsiteX102" fmla="*/ 6562725 w 6612243"/>
+            <a:gd name="connsiteY102" fmla="*/ 85725 h 2028825"/>
+            <a:gd name="connsiteX103" fmla="*/ 6581775 w 6612243"/>
+            <a:gd name="connsiteY103" fmla="*/ 57150 h 2028825"/>
+            <a:gd name="connsiteX104" fmla="*/ 6610350 w 6612243"/>
+            <a:gd name="connsiteY104" fmla="*/ 28575 h 2028825"/>
+            <a:gd name="connsiteX105" fmla="*/ 6610350 w 6612243"/>
+            <a:gd name="connsiteY105" fmla="*/ 0 h 2028825"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX73" y="connsiteY73"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX74" y="connsiteY74"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX75" y="connsiteY75"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX76" y="connsiteY76"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX77" y="connsiteY77"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX78" y="connsiteY78"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX79" y="connsiteY79"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX80" y="connsiteY80"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX81" y="connsiteY81"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX82" y="connsiteY82"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX83" y="connsiteY83"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX84" y="connsiteY84"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX85" y="connsiteY85"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX86" y="connsiteY86"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX87" y="connsiteY87"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX88" y="connsiteY88"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX89" y="connsiteY89"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX90" y="connsiteY90"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX91" y="connsiteY91"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX92" y="connsiteY92"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX93" y="connsiteY93"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX94" y="connsiteY94"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX95" y="connsiteY95"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX96" y="connsiteY96"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX97" y="connsiteY97"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX98" y="connsiteY98"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX99" y="connsiteY99"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX100" y="connsiteY100"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX101" y="connsiteY101"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX102" y="connsiteY102"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX103" y="connsiteY103"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX104" y="connsiteY104"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX105" y="connsiteY105"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="6612243" h="2028825">
+              <a:moveTo>
+                <a:pt x="0" y="2028825"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="103434" y="2011586"/>
+                <a:pt x="16144" y="2031892"/>
+                <a:pt x="95250" y="2000250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="113894" y="1992792"/>
+                <a:pt x="135181" y="1991531"/>
+                <a:pt x="152400" y="1981200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="200102" y="1952579"/>
+                <a:pt x="208806" y="1948384"/>
+                <a:pt x="257175" y="1914525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="270180" y="1905421"/>
+                <a:pt x="282066" y="1894756"/>
+                <a:pt x="295275" y="1885950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="310679" y="1875681"/>
+                <a:pt x="327281" y="1867314"/>
+                <a:pt x="342900" y="1857375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="362216" y="1845083"/>
+                <a:pt x="380171" y="1830634"/>
+                <a:pt x="400050" y="1819275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="422275" y="1806575"/>
+                <a:pt x="444102" y="1793152"/>
+                <a:pt x="466725" y="1781175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="498097" y="1764566"/>
+                <a:pt x="532439" y="1753241"/>
+                <a:pt x="561975" y="1733550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="652956" y="1672896"/>
+                <a:pt x="601247" y="1709753"/>
+                <a:pt x="714375" y="1619250"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="762000" y="1581150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="809625" y="1543050"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="819150" y="1527175"/>
+                <a:pt x="826152" y="1509481"/>
+                <a:pt x="838200" y="1495425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845650" y="1486733"/>
+                <a:pt x="857617" y="1483244"/>
+                <a:pt x="866775" y="1476375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="883039" y="1464177"/>
+                <a:pt x="900025" y="1452650"/>
+                <a:pt x="914400" y="1438275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="922495" y="1430180"/>
+                <a:pt x="925355" y="1417795"/>
+                <a:pt x="933450" y="1409700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="947825" y="1395325"/>
+                <a:pt x="965880" y="1385106"/>
+                <a:pt x="981075" y="1371600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="994499" y="1359668"/>
+                <a:pt x="1005538" y="1345189"/>
+                <a:pt x="1019175" y="1333500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1027867" y="1326050"/>
+                <a:pt x="1038714" y="1321478"/>
+                <a:pt x="1047750" y="1314450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1067324" y="1299226"/>
+                <a:pt x="1085401" y="1282145"/>
+                <a:pt x="1104900" y="1266825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1129866" y="1247209"/>
+                <a:pt x="1155700" y="1228725"/>
+                <a:pt x="1181100" y="1209675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1193800" y="1200150"/>
+                <a:pt x="1205587" y="1189268"/>
+                <a:pt x="1219200" y="1181100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1334992" y="1111625"/>
+                <a:pt x="1202543" y="1196330"/>
+                <a:pt x="1304925" y="1114425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1322803" y="1100122"/>
+                <a:pt x="1345886" y="1092514"/>
+                <a:pt x="1362075" y="1076325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1388342" y="1050058"/>
+                <a:pt x="1388283" y="1046381"/>
+                <a:pt x="1419225" y="1028700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1431553" y="1021655"/>
+                <a:pt x="1445651" y="1017732"/>
+                <a:pt x="1457325" y="1009650"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1487089" y="989044"/>
+                <a:pt x="1517452" y="968573"/>
+                <a:pt x="1543050" y="942975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1555750" y="930275"/>
+                <a:pt x="1566535" y="915314"/>
+                <a:pt x="1581150" y="904875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1589320" y="899039"/>
+                <a:pt x="1600200" y="898525"/>
+                <a:pt x="1609725" y="895350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1631950" y="876300"/>
+                <a:pt x="1653198" y="856047"/>
+                <a:pt x="1676400" y="838200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1694547" y="824241"/>
+                <a:pt x="1717361" y="816289"/>
+                <a:pt x="1733550" y="800100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1743075" y="790575"/>
+                <a:pt x="1750917" y="778997"/>
+                <a:pt x="1762125" y="771525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1770479" y="765956"/>
+                <a:pt x="1781720" y="766490"/>
+                <a:pt x="1790700" y="762000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1800939" y="756880"/>
+                <a:pt x="1809750" y="749300"/>
+                <a:pt x="1819275" y="742950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1880084" y="746751"/>
+                <a:pt x="1949212" y="741812"/>
+                <a:pt x="2009775" y="762000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2157556" y="811260"/>
+                <a:pt x="1952904" y="746987"/>
+                <a:pt x="2105025" y="809625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2142161" y="824916"/>
+                <a:pt x="2182411" y="831905"/>
+                <a:pt x="2219325" y="847725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2241550" y="857250"/>
+                <a:pt x="2264088" y="866075"/>
+                <a:pt x="2286000" y="876300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2311734" y="888309"/>
+                <a:pt x="2335512" y="904695"/>
+                <a:pt x="2362200" y="914400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2502209" y="965312"/>
+                <a:pt x="2467361" y="940690"/>
+                <a:pt x="2590800" y="971550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2616200" y="977900"/>
+                <a:pt x="2641327" y="985465"/>
+                <a:pt x="2667000" y="990600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2682875" y="993775"/>
+                <a:pt x="2699118" y="995473"/>
+                <a:pt x="2714625" y="1000125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2731002" y="1005038"/>
+                <a:pt x="2746241" y="1013172"/>
+                <a:pt x="2762250" y="1019175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2789185" y="1029276"/>
+                <a:pt x="2835429" y="1041444"/>
+                <a:pt x="2857500" y="1047750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2867025" y="1054100"/>
+                <a:pt x="2875614" y="1062151"/>
+                <a:pt x="2886075" y="1066800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2904425" y="1074955"/>
+                <a:pt x="2926517" y="1074711"/>
+                <a:pt x="2943225" y="1085850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2962275" y="1098550"/>
+                <a:pt x="2977924" y="1119460"/>
+                <a:pt x="3000375" y="1123950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3008851" y="1125645"/>
+                <a:pt x="3074330" y="1137956"/>
+                <a:pt x="3086100" y="1143000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3235842" y="1207175"/>
+                <a:pt x="3131135" y="1178071"/>
+                <a:pt x="3219450" y="1200150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3302932" y="1283632"/>
+                <a:pt x="3200770" y="1177734"/>
+                <a:pt x="3267075" y="1257300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3275699" y="1267648"/>
+                <a:pt x="3286884" y="1275648"/>
+                <a:pt x="3295650" y="1285875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3305981" y="1297928"/>
+                <a:pt x="3313000" y="1312750"/>
+                <a:pt x="3324225" y="1323975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3332320" y="1332070"/>
+                <a:pt x="3344108" y="1335575"/>
+                <a:pt x="3352800" y="1343025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3366437" y="1354714"/>
+                <a:pt x="3377476" y="1369193"/>
+                <a:pt x="3390900" y="1381125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3406095" y="1394631"/>
+                <a:pt x="3423330" y="1405719"/>
+                <a:pt x="3438525" y="1419225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3451949" y="1431157"/>
+                <a:pt x="3462257" y="1446549"/>
+                <a:pt x="3476625" y="1457325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3487984" y="1465844"/>
+                <a:pt x="3502397" y="1469330"/>
+                <a:pt x="3514725" y="1476375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3524664" y="1482055"/>
+                <a:pt x="3532926" y="1490584"/>
+                <a:pt x="3543300" y="1495425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3580703" y="1512880"/>
+                <a:pt x="3624580" y="1518285"/>
+                <a:pt x="3657600" y="1543050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3694065" y="1570399"/>
+                <a:pt x="3693123" y="1573242"/>
+                <a:pt x="3733800" y="1590675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3743028" y="1594630"/>
+                <a:pt x="3753395" y="1595710"/>
+                <a:pt x="3762375" y="1600200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3778934" y="1608479"/>
+                <a:pt x="3792811" y="1621899"/>
+                <a:pt x="3810000" y="1628775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3825031" y="1634788"/>
+                <a:pt x="3841821" y="1634788"/>
+                <a:pt x="3857625" y="1638300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3870404" y="1641140"/>
+                <a:pt x="3883095" y="1644381"/>
+                <a:pt x="3895725" y="1647825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3918025" y="1653907"/>
+                <a:pt x="3940100" y="1660793"/>
+                <a:pt x="3962400" y="1666875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3975030" y="1670319"/>
+                <a:pt x="3987961" y="1672638"/>
+                <a:pt x="4000500" y="1676400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4019734" y="1682170"/>
+                <a:pt x="4037771" y="1692610"/>
+                <a:pt x="4057650" y="1695450"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4124325" y="1704975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4353060" y="1796469"/>
+                <a:pt x="4174252" y="1732060"/>
+                <a:pt x="4762500" y="1714500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4778682" y="1714017"/>
+                <a:pt x="4794124" y="1707437"/>
+                <a:pt x="4810125" y="1704975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4835425" y="1701083"/>
+                <a:pt x="4861076" y="1699658"/>
+                <a:pt x="4886325" y="1695450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4899238" y="1693298"/>
+                <a:pt x="4911420" y="1687426"/>
+                <a:pt x="4924425" y="1685925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4936256" y="1684560"/>
+                <a:pt x="5134987" y="1670483"/>
+                <a:pt x="5200650" y="1657350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5226323" y="1652215"/>
+                <a:pt x="5251339" y="1644187"/>
+                <a:pt x="5276850" y="1638300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5292625" y="1634660"/>
+                <a:pt x="5308600" y="1631950"/>
+                <a:pt x="5324475" y="1628775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5334000" y="1622425"/>
+                <a:pt x="5342421" y="1613977"/>
+                <a:pt x="5353050" y="1609725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5374511" y="1601141"/>
+                <a:pt x="5397585" y="1597317"/>
+                <a:pt x="5419725" y="1590675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5429342" y="1587790"/>
+                <a:pt x="5439320" y="1585640"/>
+                <a:pt x="5448300" y="1581150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5468450" y="1571075"/>
+                <a:pt x="5497717" y="1544311"/>
+                <a:pt x="5514975" y="1533525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5527016" y="1526000"/>
+                <a:pt x="5540375" y="1520825"/>
+                <a:pt x="5553075" y="1514475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5636096" y="1376107"/>
+                <a:pt x="5530859" y="1547799"/>
+                <a:pt x="5610225" y="1428750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5620494" y="1413346"/>
+                <a:pt x="5628531" y="1396529"/>
+                <a:pt x="5638800" y="1381125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5687605" y="1307917"/>
+                <a:pt x="5735618" y="1259251"/>
+                <a:pt x="5772150" y="1171575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5788025" y="1133475"/>
+                <a:pt x="5804060" y="1095441"/>
+                <a:pt x="5819775" y="1057275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5826285" y="1041465"/>
+                <a:pt x="5831179" y="1024943"/>
+                <a:pt x="5838825" y="1009650"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5851525" y="984250"/>
+                <a:pt x="5861173" y="957079"/>
+                <a:pt x="5876925" y="933450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5883275" y="923925"/>
+                <a:pt x="5890855" y="915114"/>
+                <a:pt x="5895975" y="904875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5900465" y="895895"/>
+                <a:pt x="5901545" y="885528"/>
+                <a:pt x="5905500" y="876300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5911093" y="863249"/>
+                <a:pt x="5917654" y="850612"/>
+                <a:pt x="5924550" y="838200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5960508" y="773475"/>
+                <a:pt x="5944938" y="804666"/>
+                <a:pt x="5991225" y="742950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5998094" y="733792"/>
+                <a:pt x="6002825" y="723067"/>
+                <a:pt x="6010275" y="714375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6075633" y="638124"/>
+                <a:pt x="6019769" y="714406"/>
+                <a:pt x="6096000" y="638175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6110375" y="623800"/>
+                <a:pt x="6119725" y="604925"/>
+                <a:pt x="6134100" y="590550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6142195" y="582455"/>
+                <a:pt x="6154236" y="579235"/>
+                <a:pt x="6162675" y="571500"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6276975" y="457200"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6286500" y="447675"/>
+                <a:pt x="6294342" y="436097"/>
+                <a:pt x="6305550" y="428625"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6334125" y="409575"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6384925" y="333375"/>
+                <a:pt x="6318250" y="425450"/>
+                <a:pt x="6381750" y="361950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6397221" y="346479"/>
+                <a:pt x="6409889" y="312706"/>
+                <a:pt x="6419850" y="295275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6435014" y="268739"/>
+                <a:pt x="6458678" y="241978"/>
+                <a:pt x="6477000" y="219075"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6491687" y="175013"/>
+                <a:pt x="6479197" y="204130"/>
+                <a:pt x="6505575" y="161925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6515387" y="146226"/>
+                <a:pt x="6523042" y="129111"/>
+                <a:pt x="6534150" y="114300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6542232" y="103524"/>
+                <a:pt x="6554101" y="96073"/>
+                <a:pt x="6562725" y="85725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6570054" y="76931"/>
+                <a:pt x="6574446" y="65944"/>
+                <a:pt x="6581775" y="57150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6590399" y="46802"/>
+                <a:pt x="6604326" y="40623"/>
+                <a:pt x="6610350" y="28575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6614610" y="20056"/>
+                <a:pt x="6610350" y="9525"/>
+                <a:pt x="6610350" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5065,10 +6198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K1:AE1"/>
+  <dimension ref="K1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,6 +6215,27 @@
       </c>
       <c r="AE1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5094,8 +6248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M4:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="AC84" sqref="AC84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AI67" sqref="AI67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,8 +6286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5326,4 +6480,225 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.41805555555555557</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.43194444444444446</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Bloques" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -218,6 +218,12 @@
   <si>
     <t>cuando esta dentro del radio o la distancia entre dos puentos es menor al radio y su estado anterior es de transito</t>
   </si>
+  <si>
+    <t>tabla de estados</t>
+  </si>
+  <si>
+    <t>tabla eventos</t>
+  </si>
 </sst>
 </file>
 
@@ -1826,6 +1832,13 @@
             <a:t>5173 FRONT_END</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Escucha 5000</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1835,13 +1848,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>70909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1850,7 +1863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7762875" y="609600"/>
+          <a:off x="7762875" y="651934"/>
           <a:ext cx="1857375" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1942,7 +1955,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>170922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -1960,8 +1973,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5362575" y="1271588"/>
-          <a:ext cx="2400300" cy="990600"/>
+          <a:off x="5362575" y="1313922"/>
+          <a:ext cx="2400300" cy="948266"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2108,7 +2121,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -2126,12 +2139,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="5522118" y="-2436020"/>
-          <a:ext cx="123825" cy="6215064"/>
+          <a:off x="5543285" y="-2414853"/>
+          <a:ext cx="81491" cy="6215064"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -184615"/>
+            <a:gd name="adj1" fmla="val -280522"/>
             <a:gd name="adj2" fmla="val 57471"/>
           </a:avLst>
         </a:prstGeom>
@@ -2437,16 +2450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>153456</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>756706</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>103716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>730249</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>132291</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2455,7 +2468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7773456" y="2770716"/>
+          <a:off x="7614706" y="2686049"/>
           <a:ext cx="2259543" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2988,6 +3001,64 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>624416</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Flecha curvada hacia la derecha 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7196666" y="3185583"/>
+          <a:ext cx="285750" cy="1926167"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6198,10 +6269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K1:AE5"/>
+  <dimension ref="K1:AE15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,6 +6307,64 @@
       </c>
       <c r="Y5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6248,7 +6377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M4:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="AI67" sqref="AI67"/>
     </sheetView>
   </sheetViews>
@@ -6286,7 +6415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
@@ -6499,18 +6628,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G24"/>
+  <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A15" sqref="A15:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="113.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>

--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bug\Documents\ruptela_decoder\arquitectura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hubei\Documents\ruptela_decoder\arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -87,15 +87,6 @@
     <t>IGNICION APAGADA</t>
   </si>
   <si>
-    <t>VELOCIDAD MAYOR CERO Y DISTANCIA A CADA UNO DE LAS REFERENCIAS MAYOR A LOS RADIOS</t>
-  </si>
-  <si>
-    <t>VELOCIDAD CERO Y DISTANCIA A UNA REFERENCIA DE CHUTE MENOR AL RADIO</t>
-  </si>
-  <si>
-    <t>VELOCIDAD CERO Y DISTANCIA A UNA REFERENCIA A ESCABADORA MENOR AL RADIO</t>
-  </si>
-  <si>
     <t>INACTIVO</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>CUENTA SIN ACCESO</t>
   </si>
   <si>
-    <t>CONTROL DE ASIGNACION</t>
-  </si>
-  <si>
     <t>CONTROLADOR</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t xml:space="preserve"> POR DIA Y HORA</t>
   </si>
   <si>
-    <t>23/15/2025  20:00:00</t>
-  </si>
-  <si>
     <t>1metro</t>
   </si>
   <si>
@@ -223,6 +208,78 @@
   </si>
   <si>
     <t>tabla eventos</t>
+  </si>
+  <si>
+    <t>transmisiones uso futuro</t>
+  </si>
+  <si>
+    <t>VELOCIDAD CERO Y DISTANCIA A UNA REFERENCIA A ESCABADORA MENOR AL RADIO Y SU ESTADO ANTERIOR FUE EN TRANSITO</t>
+  </si>
+  <si>
+    <t>VELOCIDAD CERO Y DISTANCIA A UNA REFERENCIA DE CHUTE MENOR AL RADIO Y SU ESTADO ANTERIOR FUE EN TRANSITO</t>
+  </si>
+  <si>
+    <t>cargando</t>
+  </si>
+  <si>
+    <t>transito</t>
+  </si>
+  <si>
+    <t>descargando</t>
+  </si>
+  <si>
+    <t>no lo modifica</t>
+  </si>
+  <si>
+    <t>eventos</t>
+  </si>
+  <si>
+    <t>descargado final</t>
+  </si>
+  <si>
+    <t>cargando inicial</t>
+  </si>
+  <si>
+    <t>cargado final</t>
+  </si>
+  <si>
+    <t>descargando inicial</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ui (descargando)</t>
+  </si>
+  <si>
+    <t>descargado inicial</t>
+  </si>
+  <si>
+    <t>ui (transito)</t>
+  </si>
+  <si>
+    <t>ui (cargando)</t>
+  </si>
+  <si>
+    <t>cargado inicial</t>
+  </si>
+  <si>
+    <t>map(STRING,STRING)&lt;IMEI GPS, ESTADO&gt;</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>3 TABLAS PERSONAS(NOMBRE Y DNI), MAQUINARIA (TIPO DE VEHICULO, IMEI GPS)</t>
+  </si>
+  <si>
+    <t>RELACION PERSONAS-MAQUINAS (HORARIO INICIO FINAL) INDEXADO POR FECHA HORA</t>
   </si>
 </sst>
 </file>
@@ -245,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +315,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -267,11 +342,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,6 +369,10 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6213,7 +6307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -6272,7 +6366,7 @@
   <dimension ref="K1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="V8" sqref="V8:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6298,7 +6392,7 @@
         <v>15</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="11:31" x14ac:dyDescent="0.25">
@@ -6306,66 +6400,77 @@
         <v>2</v>
       </c>
       <c r="Y5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="11:31" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="11:31" x14ac:dyDescent="0.25">
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="7">
         <v>1</v>
       </c>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="11:31" x14ac:dyDescent="0.25">
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="7">
         <v>2</v>
       </c>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="11:31" x14ac:dyDescent="0.25">
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="7">
         <v>3</v>
       </c>
+      <c r="W11" s="7"/>
     </row>
     <row r="12" spans="11:31" x14ac:dyDescent="0.25">
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="7">
         <v>4</v>
       </c>
+      <c r="W12" s="7"/>
     </row>
     <row r="13" spans="11:31" x14ac:dyDescent="0.25">
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="7">
         <v>5</v>
       </c>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="11:31" x14ac:dyDescent="0.25">
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="7">
         <v>6</v>
       </c>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="V15">
+      <c r="V15" s="7">
         <v>7</v>
       </c>
+      <c r="W15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6413,214 +6518,405 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="113.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
       </c>
       <c r="C26" s="2">
         <v>45800.25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D29:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N25"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6631,7 +6927,7 @@
   <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,24 +6939,24 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6668,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4">
         <v>0.41666666666666669</v>
@@ -6677,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6685,7 +6981,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6">
         <v>0.41805555555555557</v>
@@ -6695,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6703,7 +6999,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4">
         <v>0.4236111111111111</v>
@@ -6717,7 +7013,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3">
         <v>0.42499999999999999</v>
@@ -6731,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>0.43055555555555558</v>
@@ -6745,7 +7041,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6">
         <v>0.43194444444444446</v>
@@ -6760,7 +7056,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4">
         <v>0.4375</v>
@@ -6774,7 +7070,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
         <v>0.43888888888888888</v>
@@ -6785,15 +7081,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -6814,12 +7110,12 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">

--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="8085" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Bloques" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
     <sheet name="tabla" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -252,9 +253,6 @@
     <t>ui</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>ui (descargando)</t>
   </si>
   <si>
@@ -280,6 +278,138 @@
   </si>
   <si>
     <t>RELACION PERSONAS-MAQUINAS (HORARIO INICIO FINAL) INDEXADO POR FECHA HORA</t>
+  </si>
+  <si>
+    <t>VELOCIDAD MAYOR A CERO IGNICION ENCENDIDA</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>añadir</t>
+  </si>
+  <si>
+    <t>Vidal Alvarez Manuel</t>
+  </si>
+  <si>
+    <t>Wilson Pacco Ramos</t>
+  </si>
+  <si>
+    <t>Juvenal Quiispe</t>
+  </si>
+  <si>
+    <t>Maquinaria</t>
+  </si>
+  <si>
+    <t>tipo maquinaria</t>
+  </si>
+  <si>
+    <t>Operador</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>CAMION 1</t>
+  </si>
+  <si>
+    <t>CAMION 2</t>
+  </si>
+  <si>
+    <t>CAMION 3</t>
+  </si>
+  <si>
+    <t>CAMION 4</t>
+  </si>
+  <si>
+    <t>CAMION 5</t>
+  </si>
+  <si>
+    <t>CACCRAMPA 2</t>
+  </si>
+  <si>
+    <t>CACCRAMPA 1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>editar</t>
+  </si>
+  <si>
+    <t>eliminar</t>
+  </si>
+  <si>
+    <t>Asignacion de horarios</t>
+  </si>
+  <si>
+    <t>Maquinarias</t>
+  </si>
+  <si>
+    <t>Felix Paupañaupa</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Seleccionar Personal</t>
+  </si>
+  <si>
+    <t>Seleccionar Maquinaria</t>
+  </si>
+  <si>
+    <t>fecha de inicio</t>
+  </si>
+  <si>
+    <t>fecha final</t>
+  </si>
+  <si>
+    <t>guardar</t>
+  </si>
+  <si>
+    <t>calendario y hora</t>
+  </si>
+  <si>
+    <t>Reporte de asiganciones</t>
+  </si>
+  <si>
+    <t>inicio (fecha y hora)</t>
+  </si>
+  <si>
+    <t>final (fecha y hora)</t>
+  </si>
+  <si>
+    <t>Ver reporte</t>
+  </si>
+  <si>
+    <t>Asiganacion (SI/NO)</t>
+  </si>
+  <si>
+    <t>Vidal Alvarez</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Juvenal Quispe</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>mongo db</t>
   </si>
 </sst>
 </file>
@@ -361,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -370,9 +500,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6011,6 +6142,119 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha abajo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="5943600"/>
+          <a:ext cx="190500" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flecha abajo 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="6143625"/>
+          <a:ext cx="190500" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6365,7 +6609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V8" sqref="V8:W15"/>
     </sheetView>
   </sheetViews>
@@ -6520,13 +6764,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="113.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -6550,53 +6794,53 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -6607,10 +6851,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
@@ -6621,10 +6865,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
@@ -6652,9 +6896,9 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E11" t="s">
@@ -6759,18 +7003,18 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
         <v>77</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -6812,9 +7056,9 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E29" t="s">
@@ -6844,7 +7088,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
@@ -6852,7 +7096,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7132,4 +7376,387 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>42485546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>2454564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>4525252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>4564643215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>45665465464</v>
+      </c>
+      <c r="D20">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>45665465464</v>
+      </c>
+      <c r="D21">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>45665465464</v>
+      </c>
+      <c r="D22">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>45665465464</v>
+      </c>
+      <c r="D23">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>45665465464</v>
+      </c>
+      <c r="D24">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>45665465464</v>
+      </c>
+      <c r="D25">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>45665465464</v>
+      </c>
+      <c r="D26">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>45665465464</v>
+      </c>
+      <c r="D27">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>45665465464</v>
+      </c>
+      <c r="D28">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/arquitectura/Arquitectura.xlsx
+++ b/arquitectura/Arquitectura.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>Repórte de Ubicación</t>
   </si>
@@ -283,9 +283,6 @@
     <t>VELOCIDAD MAYOR A CERO IGNICION ENCENDIDA</t>
   </si>
   <si>
-    <t>usuarios</t>
-  </si>
-  <si>
     <t>añadir</t>
   </si>
   <si>
@@ -301,18 +298,6 @@
     <t>Maquinaria</t>
   </si>
   <si>
-    <t>tipo maquinaria</t>
-  </si>
-  <si>
-    <t>Operador</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
     <t>CAMION 1</t>
   </si>
   <si>
@@ -346,9 +331,6 @@
     <t>Asignacion de horarios</t>
   </si>
   <si>
-    <t>Maquinarias</t>
-  </si>
-  <si>
     <t>Felix Paupañaupa</t>
   </si>
   <si>
@@ -403,13 +385,25 @@
     <t>-</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>mongo db</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Telefono_familia</t>
+  </si>
+  <si>
+    <t>nombre_maquinaria</t>
+  </si>
+  <si>
+    <t>imei</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>Combo box</t>
   </si>
 </sst>
 </file>
@@ -464,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -487,11 +481,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -504,6 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6142,119 +6150,6 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flecha abajo 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3867150" y="5943600"/>
-          <a:ext cx="190500" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flecha abajo 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3876675" y="6143625"/>
-          <a:ext cx="190500" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7380,383 +7275,380 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N49"/>
+  <dimension ref="A5:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M3" t="s">
+      <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42485546</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2454564</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4525252</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4564643215</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D16" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D17" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D18" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D19" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D20" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D21" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D22" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D23" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45665465464</v>
+      </c>
+      <c r="D24" s="7">
+        <v>958206357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C8">
-        <v>42485546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9">
-        <v>2454564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>4525252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11">
-        <v>4564643215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D41" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20">
-        <v>45665465464</v>
-      </c>
-      <c r="D20">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21">
-        <v>45665465464</v>
-      </c>
-      <c r="D21">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22">
-        <v>45665465464</v>
-      </c>
-      <c r="D22">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23">
-        <v>45665465464</v>
-      </c>
-      <c r="D23">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24">
-        <v>45665465464</v>
-      </c>
-      <c r="D24">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>45665465464</v>
-      </c>
-      <c r="D25">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>45665465464</v>
-      </c>
-      <c r="D26">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27">
-        <v>45665465464</v>
-      </c>
-      <c r="D27">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28">
-        <v>45665465464</v>
-      </c>
-      <c r="D28">
-        <v>958206357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>